--- a/src/test/java/top/yumbo/test/excel/importDemo/PIM.xlsx
+++ b/src/test/java/top/yumbo/test/excel/importDemo/PIM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="22365" windowHeight="6390"/>
+    <workbookView windowWidth="23505" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,21 +781,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,20 +858,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -839,10 +865,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -853,17 +879,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,14 +898,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -901,28 +917,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -933,13 +933,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,169 +1095,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,6 +1124,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1145,7 +1184,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1165,65 +1224,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1232,145 +1232,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1717,10 +1717,10 @@
   <sheetPr/>
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1977,7 +1977,7 @@
         <v>57</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -2003,7 +2003,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" objects="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange password="C71F" sqref="$A1:$XFD3" name="区域1" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>
@@ -2012,23 +2012,23 @@
       <formula1>"土地使用权,在建工程,不动产"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3 F1:F3 I1:I3 J1:J3 L1:L3 N1:N3 O1:O3 P1:P3 Q1:Q3 V1:V3 X1:X3 AC1:AC3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4:X1048576">
-      <formula1>"出让,划拨,其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L1048576 N4:N1048576">
+      <formula1>"平方公里,平方米,亩,公顷"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576">
       <formula1>"集体土地使用权,房屋等建筑物、构筑物所有权,森林、林木所有权,耕地、林地、草地等土地承包经营权,建设用地使用权,宅基地使用权,海域使用权,地役权,抵押权,法律规定需要登记的其他不动产权利"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L1048576 N4:N1048576">
-      <formula1>"平方公里,平方米,亩,公顷"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576 J4:J1048576 P4:P1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4:X1048576">
+      <formula1>"出让,划拨,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q1048576">
+      <formula1>"预评估报告,正式评估报告"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O1048576">
       <formula1>"共同抵押,承诺抵押"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576 J4:J1048576 P4:P1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q1048576">
-      <formula1>"预评估报告,正式评估报告"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4:V1048576">
       <formula1>"元,万,百万,千万,亿"</formula1>

--- a/src/test/java/top/yumbo/test/excel/importDemo/PIM.xlsx
+++ b/src/test/java/top/yumbo/test/excel/importDemo/PIM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="23505" windowHeight="11070"/>
+    <workbookView windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>序号</t>
   </si>
@@ -734,9 +734,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>亩</t>
   </si>
   <si>
     <t>承诺抵押</t>
@@ -781,13 +778,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -796,7 +786,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,7 +839,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,7 +847,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,73 +920,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -933,31 +930,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,150 +1111,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,30 +1121,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1162,6 +1135,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,24 +1189,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1210,17 +1198,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,10 +1229,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1244,133 +1241,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1717,10 +1714,10 @@
   <sheetPr/>
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1968,16 +1965,14 @@
       <c r="K3" s="3">
         <v>15</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -1987,19 +1982,19 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2008,12 +2003,15 @@
     <protectedRange password="C71F" sqref="$A1:$XFD3" name="区域1" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>
   <dataValidations count="10">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3 F1:F3 I1:I3 J1:J3 L1:L3 N1:N3 O1:O3 P1:P3 Q1:Q3 V1:V3 X1:X3 AC1:AC3"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O1048576">
+      <formula1>"共同抵押,承诺抵押"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576">
       <formula1>"土地使用权,在建工程,不动产"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3 F1:F3 I1:I3 J1:J3 L1:L3 N1:N3 O1:O3 P1:P3 Q1:Q3 V1:V3 X1:X3 AC1:AC3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L1048576 N4:N1048576">
-      <formula1>"平方公里,平方米,亩,公顷"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q1048576">
+      <formula1>"预评估报告,正式评估报告"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576">
       <formula1>"集体土地使用权,房屋等建筑物、构筑物所有权,森林、林木所有权,耕地、林地、草地等土地承包经营权,建设用地使用权,宅基地使用权,海域使用权,地役权,抵押权,法律规定需要登记的其他不动产权利"</formula1>
@@ -2021,17 +2019,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576 J4:J1048576 P4:P1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4:X1048576">
-      <formula1>"出让,划拨,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q1048576">
-      <formula1>"预评估报告,正式评估报告"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O1048576">
-      <formula1>"共同抵押,承诺抵押"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L1048576 N4:N1048576">
+      <formula1>"平方公里,平方米,亩,公顷"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4:V1048576">
       <formula1>"元,万,百万,千万,亿"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4:X1048576">
+      <formula1>"出让,划拨,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC4:AC1048576">
       <formula1>"正常,特殊"</formula1>

--- a/src/test/java/top/yumbo/test/excel/importDemo/PIM.xlsx
+++ b/src/test/java/top/yumbo/test/excel/importDemo/PIM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+  <si>
+    <t>不动产抵押担保</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
@@ -670,9 +673,6 @@
     <t>杭州滨江区核心地段</t>
   </si>
   <si>
-    <t>集体土地使用权</t>
-  </si>
-  <si>
     <t>商业</t>
   </si>
   <si>
@@ -727,13 +727,16 @@
     <t>北京朝阳区核心地段</t>
   </si>
   <si>
-    <t>森林、林木所有权</t>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
   </si>
   <si>
     <t>农业</t>
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>亩</t>
   </si>
   <si>
     <t>承诺抵押</t>
@@ -761,7 +764,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +773,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -778,7 +787,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,15 +883,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -808,7 +892,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,9 +900,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -838,13 +922,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,74 +929,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -930,187 +939,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,21 +1130,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1166,41 +1160,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1221,6 +1180,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1229,10 +1238,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1241,137 +1250,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1382,10 +1391,19 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1712,22 +1730,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="2" customWidth="1"/>
     <col min="7" max="9" width="9" style="2"/>
     <col min="10" max="10" width="30.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="2" customWidth="1"/>
@@ -1753,282 +1771,322 @@
     <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:30">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:30">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:30">
-      <c r="A2" s="3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3">
-        <v>40</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="3">
-        <v>1200</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="4">
-        <v>44146</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>17863456789</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:30">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>40</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <v>12</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1200</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="7">
+        <v>44146</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>17863456789</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:30">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="5">
         <v>50</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K4" s="5">
         <v>15</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="L4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3" t="s">
+      <c r="Y4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5" t="s">
         <v>60</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1" objects="1"/>
   <protectedRanges>
-    <protectedRange password="C71F" sqref="$A1:$XFD3" name="区域1" securityDescriptor="O:WDG:WDD:"/>
+    <protectedRange password="C71F" sqref="$A2:$XFD4" name="区域1" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>
-  <dataValidations count="10">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3 F1:F3 I1:I3 J1:J3 L1:L3 N1:N3 O1:O3 P1:P3 Q1:Q3 V1:V3 X1:X3 AC1:AC3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O1048576">
+  <mergeCells count="1">
+    <mergeCell ref="A1:AD1"/>
+  </mergeCells>
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1 Y5:Y1048576">
+      <formula1>"受托管理人,受权抵押权人"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4 I2:I4 J2:J4 L2:L4 N2:N4 O2:O4 P2:P4 Q2:Q4 V2:V4 X2:X4 AC2:AC4"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q1048576">
+      <formula1>"预评估报告,正式评估报告"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576">
       <formula1>"共同抵押,承诺抵押"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576 J5:J1048576 P5:P1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576">
       <formula1>"土地使用权,在建工程,不动产"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q1048576">
-      <formula1>"预评估报告,正式评估报告"</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="权利类型（支持多选，填写时填写对应编号，编号间用英文逗号即可）" prompt="1、集体土地使用权&#10;2、房屋等建筑物、构筑物所有权&#10;3、森林、林木所有权&#10;4、耕地、林地、草地等土地承包经营权&#10;5、建筑用地使用权&#10;6、宅基地使用权&#10;7、海域使用权&#10;8、地役权&#10;9、抵押权&#10;10、法律规定需要登记的其他不动产权利" sqref="F$1:F$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V1048576">
+      <formula1>"元,万,百万,千万,亿"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576">
-      <formula1>"集体土地使用权,房屋等建筑物、构筑物所有权,森林、林木所有权,耕地、林地、草地等土地承包经营权,建设用地使用权,宅基地使用权,海域使用权,地役权,抵押权,法律规定需要登记的其他不动产权利"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576 J4:J1048576 P4:P1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L1048576 N4:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576 N5:N1048576">
       <formula1>"平方公里,平方米,亩,公顷"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4:V1048576">
-      <formula1>"元,万,百万,千万,亿"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5:X1048576">
       <formula1>"出让,划拨,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC4:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC5:AC1048576">
       <formula1>"正常,特殊"</formula1>
     </dataValidation>
   </dataValidations>
